--- a/Data/excel/BD_Clientes_Estudio_de_Ahorro.xlsx
+++ b/Data/excel/BD_Clientes_Estudio_de_Ahorro.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pptrv/IronHack/Final_Proyect_Vivolt/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pptrv/IronHack/Final_Proyect_Vivolt/Data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C100B0A1-616C-6346-8FBE-E0E4B2CE851B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E832E8E-DB8F-F942-BE89-0F03E3D60C47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{C0DA489D-C199-6446-8FEA-2F589E5E5180}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Telefono</t>
   </si>
@@ -121,6 +121,54 @@
   </si>
   <si>
     <t>Persona_de_Contacto</t>
+  </si>
+  <si>
+    <t>Index_o_Fijo</t>
+  </si>
+  <si>
+    <t>Jaime Giron -Clinica Dentista</t>
+  </si>
+  <si>
+    <t>Javier Giron de Velasco Sada SLP</t>
+  </si>
+  <si>
+    <t>B85575702</t>
+  </si>
+  <si>
+    <t>ES0021000004008340YN</t>
+  </si>
+  <si>
+    <t>C/ AZALEA, 1-E, 2o 1, 28109, ALCOBENDAS (MADRID)</t>
+  </si>
+  <si>
+    <t>Dentista</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Iberdrola</t>
+  </si>
+  <si>
+    <t>2.1. A</t>
+  </si>
+  <si>
+    <t>22.07.2019</t>
+  </si>
+  <si>
+    <t>22.07.2020</t>
+  </si>
+  <si>
+    <t>fijo</t>
+  </si>
+  <si>
+    <t>0.19873</t>
+  </si>
+  <si>
+    <t>0.23897</t>
+  </si>
+  <si>
+    <t>0.04563</t>
   </si>
 </sst>
 </file>
@@ -144,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,14 +229,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -244,22 +286,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -301,10 +332,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -621,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8D641E-7EFD-554E-AE99-1B0E0837075B}">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -632,7 +660,7 @@
     <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -684,69 +712,115 @@
       <c r="Q1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="R1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="T1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Z1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="11" t="s">
+      <c r="AA1" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="11" t="s">
+      <c r="AB1" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AC1" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="12" t="s">
+      <c r="AD1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="12" t="s">
+      <c r="AE1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="8" t="s">
+      <c r="AF1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="13">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" s="15"/>
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="15"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" s="15">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/excel/BD_Clientes_Estudio_de_Ahorro.xlsx
+++ b/Data/excel/BD_Clientes_Estudio_de_Ahorro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pptrv/IronHack/Final_Proyect_Vivolt/Data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E832E8E-DB8F-F942-BE89-0F03E3D60C47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CBCC19-C8BB-4A47-862B-E702D001E680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{C0DA489D-C199-6446-8FEA-2F589E5E5180}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>Telefono</t>
   </si>
@@ -126,15 +126,6 @@
     <t>Index_o_Fijo</t>
   </si>
   <si>
-    <t>Jaime Giron -Clinica Dentista</t>
-  </si>
-  <si>
-    <t>Javier Giron de Velasco Sada SLP</t>
-  </si>
-  <si>
-    <t>B85575702</t>
-  </si>
-  <si>
     <t>ES0021000004008340YN</t>
   </si>
   <si>
@@ -169,13 +160,25 @@
   </si>
   <si>
     <t>0.04563</t>
+  </si>
+  <si>
+    <t>Pepe Treviño</t>
+  </si>
+  <si>
+    <t>05324268k</t>
+  </si>
+  <si>
+    <t>Jose María Treviño</t>
+  </si>
+  <si>
+    <t>trv.pepe@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,6 +190,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -287,10 +298,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,8 +347,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -652,7 +666,7 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+      <selection activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -763,66 +777,103 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2">
+        <v>699792928</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="G2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
+      <c r="O2" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="G2" t="s">
-        <v>37</v>
-      </c>
-      <c r="L2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="P2" s="13">
         <v>33</v>
       </c>
       <c r="Q2" s="14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="R2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF2" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="S2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA2" s="15"/>
-      <c r="AB2" s="15"/>
-      <c r="AC2" s="15"/>
-      <c r="AD2" s="15"/>
-      <c r="AE2" s="15"/>
-      <c r="AF2" s="15" t="s">
-        <v>47</v>
       </c>
       <c r="AG2" s="15">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{2B8EA109-5046-C844-B13C-84B93613E839}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/excel/BD_Clientes_Estudio_de_Ahorro.xlsx
+++ b/Data/excel/BD_Clientes_Estudio_de_Ahorro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pptrv/IronHack/Final_Proyect_Vivolt/Data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CBCC19-C8BB-4A47-862B-E702D001E680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4129F340-EE84-5043-9680-40B83218F1DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{C0DA489D-C199-6446-8FEA-2F589E5E5180}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Telefono</t>
   </si>
@@ -126,52 +126,46 @@
     <t>Index_o_Fijo</t>
   </si>
   <si>
-    <t>ES0021000004008340YN</t>
-  </si>
-  <si>
-    <t>C/ AZALEA, 1-E, 2o 1, 28109, ALCOBENDAS (MADRID)</t>
-  </si>
-  <si>
-    <t>Dentista</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
-    <t>Iberdrola</t>
-  </si>
-  <si>
-    <t>2.1. A</t>
-  </si>
-  <si>
-    <t>22.07.2019</t>
-  </si>
-  <si>
-    <t>22.07.2020</t>
-  </si>
-  <si>
     <t>fijo</t>
   </si>
   <si>
-    <t>0.19873</t>
-  </si>
-  <si>
-    <t>0.23897</t>
-  </si>
-  <si>
-    <t>0.04563</t>
-  </si>
-  <si>
-    <t>Pepe Treviño</t>
-  </si>
-  <si>
-    <t>05324268k</t>
-  </si>
-  <si>
-    <t>Jose María Treviño</t>
-  </si>
-  <si>
     <t>trv.pepe@gmail.com</t>
+  </si>
+  <si>
+    <t>Azaya, S.L.</t>
+  </si>
+  <si>
+    <t>B28350619</t>
+  </si>
+  <si>
+    <t>ES0021000007463134RE</t>
+  </si>
+  <si>
+    <t>Cmno Estrella Torre Tolanca, Km 7,5, 45100 Sonseca (Toledo)</t>
+  </si>
+  <si>
+    <t>Empresa</t>
+  </si>
+  <si>
+    <t>Finca Rustica</t>
+  </si>
+  <si>
+    <t>22.04.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fenie Energía </t>
+  </si>
+  <si>
+    <t>3.1. A</t>
+  </si>
+  <si>
+    <t>Amalia Zunzunegui</t>
+  </si>
+  <si>
+    <t>22.04.2019</t>
   </si>
 </sst>
 </file>
@@ -302,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,9 +333,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -666,12 +657,27 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+      <selection activeCell="F10" sqref="F9:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
@@ -777,96 +783,103 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" t="s">
-        <v>46</v>
+        <v>36</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>48</v>
+      <c r="D2" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="E2">
         <v>699792928</v>
       </c>
       <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s">
         <v>33</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="13">
+        <v>5342345</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="13">
+        <v>38</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="13">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>41</v>
-      </c>
       <c r="S2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="W2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="X2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA2" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB2" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC2" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD2" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE2" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF2" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AG2" s="15">
+      <c r="T2">
+        <v>0.121307</v>
+      </c>
+      <c r="U2">
+        <v>0.114617</v>
+      </c>
+      <c r="V2">
+        <v>9.4279000000000002E-2</v>
+      </c>
+      <c r="W2">
+        <v>0.121307</v>
+      </c>
+      <c r="X2">
+        <v>0.114617</v>
+      </c>
+      <c r="Y2">
+        <v>9.4279000000000002E-2</v>
+      </c>
+      <c r="Z2">
+        <v>0.16211900000000001</v>
+      </c>
+      <c r="AA2">
+        <v>9.9973999999999993E-2</v>
+      </c>
+      <c r="AB2">
+        <v>2.2925000000000001E-2</v>
+      </c>
+      <c r="AC2">
+        <v>0.16211900000000001</v>
+      </c>
+      <c r="AD2">
+        <v>9.9973999999999993E-2</v>
+      </c>
+      <c r="AE2">
+        <v>2.2925000000000001E-2</v>
+      </c>
+      <c r="AF2">
+        <f>14.99/38</f>
+        <v>0.39447368421052631</v>
+      </c>
+      <c r="AG2" s="14">
         <v>0</v>
       </c>
     </row>

--- a/Data/excel/BD_Clientes_Estudio_de_Ahorro.xlsx
+++ b/Data/excel/BD_Clientes_Estudio_de_Ahorro.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pptrv/IronHack/Final_Proyect_Vivolt/Data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4129F340-EE84-5043-9680-40B83218F1DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC51C4C2-83F5-4049-B0FE-A8F713273C18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{C0DA489D-C199-6446-8FEA-2F589E5E5180}"/>
   </bookViews>
@@ -138,9 +138,6 @@
     <t>Azaya, S.L.</t>
   </si>
   <si>
-    <t>B28350619</t>
-  </si>
-  <si>
     <t>ES0021000007463134RE</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>22.04.2019</t>
+  </si>
+  <si>
+    <t>B56445566</t>
   </si>
 </sst>
 </file>
@@ -657,7 +657,7 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F9:F10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,10 +786,10 @@
         <v>36</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>35</v>
@@ -798,16 +798,16 @@
         <v>699792928</v>
       </c>
       <c r="F2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" t="s">
         <v>38</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>40</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>41</v>
       </c>
       <c r="J2" t="s">
         <v>33</v>
@@ -816,10 +816,10 @@
         <v>33</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N2" s="13">
         <v>5342345</v>
@@ -831,13 +831,13 @@
         <v>38</v>
       </c>
       <c r="Q2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R2" s="13" t="s">
         <v>34</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T2">
         <v>0.121307</v>

--- a/Data/excel/BD_Clientes_Estudio_de_Ahorro.xlsx
+++ b/Data/excel/BD_Clientes_Estudio_de_Ahorro.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pptrv/IronHack/Final_Proyect_Vivolt/Data/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC51C4C2-83F5-4049-B0FE-A8F713273C18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB96612D-4CC2-4B49-A934-04076B1CA70E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3580" yWindow="2560" windowWidth="27240" windowHeight="16440" xr2:uid="{C0DA489D-C199-6446-8FEA-2F589E5E5180}"/>
   </bookViews>
@@ -132,9 +132,6 @@
     <t>fijo</t>
   </si>
   <si>
-    <t>trv.pepe@gmail.com</t>
-  </si>
-  <si>
     <t>Azaya, S.L.</t>
   </si>
   <si>
@@ -165,14 +162,17 @@
     <t>22.04.2019</t>
   </si>
   <si>
-    <t>B56445566</t>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>B55555555</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,6 +192,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -296,7 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,6 +346,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -657,13 +665,17 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="52.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.5" bestFit="1" customWidth="1"/>
@@ -687,7 +699,7 @@
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -783,31 +795,31 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>46</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E2">
-        <v>699792928</v>
+        <v>699999999</v>
       </c>
       <c r="F2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
         <v>37</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="J2" t="s">
         <v>33</v>
@@ -816,10 +828,10 @@
         <v>33</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M2" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N2" s="13">
         <v>5342345</v>
@@ -831,13 +843,13 @@
         <v>38</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R2" s="13" t="s">
         <v>34</v>
       </c>
       <c r="S2" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T2">
         <v>0.121307</v>
